--- a/Pipeline_2-Vulnerability/Energy/Outputs/Data/Energy_Data_raw.xlsx
+++ b/Pipeline_2-Vulnerability/Energy/Outputs/Data/Energy_Data_raw.xlsx
@@ -20936,6 +20936,12 @@
       <c r="C980">
         <v>0</v>
       </c>
+      <c r="D980">
+        <v>0.4165107822593831</v>
+      </c>
+      <c r="E980">
+        <v>0.0004620431433342159</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
@@ -20972,6 +20978,12 @@
       <c r="C982">
         <v>0</v>
       </c>
+      <c r="D982">
+        <v>0.3452037370495306</v>
+      </c>
+      <c r="E982">
+        <v>0.03398766707614088</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
@@ -21071,6 +21083,12 @@
       <c r="C987">
         <v>0</v>
       </c>
+      <c r="D987">
+        <v>0.419928352542083</v>
+      </c>
+      <c r="E987">
+        <v>0.01008886823547337</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
@@ -21107,6 +21125,12 @@
       <c r="C989">
         <v>0</v>
       </c>
+      <c r="D989">
+        <v>0.4165107822593831</v>
+      </c>
+      <c r="E989">
+        <v>0.0004620431433342159</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
@@ -21143,6 +21167,12 @@
       <c r="C991">
         <v>0</v>
       </c>
+      <c r="D991">
+        <v>0.3452037370495306</v>
+      </c>
+      <c r="E991">
+        <v>0.03398766707614088</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
@@ -40750,6 +40780,12 @@
       </c>
       <c r="C1925">
         <v>0</v>
+      </c>
+      <c r="D1925">
+        <v>0.4165107822593831</v>
+      </c>
+      <c r="E1925">
+        <v>0.0004620431433342159</v>
       </c>
     </row>
     <row r="1926">
